--- a/Archivos/Diario-ACPE.xlsx
+++ b/Archivos/Diario-ACPE.xlsx
@@ -485,12 +485,12 @@
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>787984136</t>
+          <t>787986899</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DALD1304</t>
+          <t>abeltacillo99</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2025-10-08 00:08:42</t>
+          <t>2025-10-09 01:31:03</t>
         </is>
       </c>
     </row>
@@ -533,12 +533,12 @@
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>787984151</t>
+          <t>787987004</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>angelito1725b</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>S/8.06</t>
+          <t>S/0.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -573,7 +573,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2025-10-08 00:58:27</t>
+          <t>2025-10-09 04:42:30</t>
         </is>
       </c>
     </row>
@@ -581,12 +581,12 @@
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>787984154</t>
+          <t>787987112</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>945140908</t>
+          <t>Morales26</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2025-10-08 01:24:52</t>
+          <t>2025-10-09 05:45:11</t>
         </is>
       </c>
     </row>
@@ -629,12 +629,12 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>787984169</t>
+          <t>787987523</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Shemfran14</t>
+          <t>Reyna</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -669,7 +669,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2025-10-08 01:55:53</t>
+          <t>2025-10-09 07:57:08</t>
         </is>
       </c>
     </row>
@@ -677,12 +677,12 @@
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>787984181</t>
+          <t>787987604</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>41517230</t>
+          <t>luisaliaga</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>S/0.04</t>
+          <t>S/50.00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -717,7 +717,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2025-10-08 02:21:13</t>
+          <t>2025-10-09 08:19:47</t>
         </is>
       </c>
     </row>
@@ -725,12 +725,12 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>787984682</t>
+          <t>787987619</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>pedrojoel2025</t>
+          <t>Jose1912</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2025-10-08 07:29:21</t>
+          <t>2025-10-09 08:23:44</t>
         </is>
       </c>
     </row>
@@ -773,12 +773,12 @@
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>787984976</t>
+          <t>787987667</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>yersoncarhupom</t>
+          <t>teodora1234</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>S/0.00</t>
+          <t>S/40.00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -813,7 +813,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2025-10-08 08:35:19</t>
+          <t>2025-10-09 08:35:02</t>
         </is>
       </c>
     </row>
@@ -821,12 +821,12 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>787985027</t>
+          <t>787987733</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>mijaelyana</t>
+          <t>nandololi</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2025-10-08 08:52:34</t>
+          <t>2025-10-09 08:51:10</t>
         </is>
       </c>
     </row>
@@ -869,12 +869,12 @@
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>787985042</t>
+          <t>787987844</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Sabinolara</t>
+          <t>cilos12</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2025-10-08 08:57:21</t>
+          <t>2025-10-09 09:21:43</t>
         </is>
       </c>
     </row>
@@ -917,12 +917,12 @@
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>787985180</t>
+          <t>787987973</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Miguel150813</t>
+          <t>SoyBryan123</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2025-10-08 09:29:19</t>
+          <t>2025-10-09 09:59:12</t>
         </is>
       </c>
     </row>
@@ -965,12 +965,12 @@
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>787985360</t>
+          <t>787987994</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>batakero.18</t>
+          <t>hernaldi</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2025-10-08 10:10:52</t>
+          <t>2025-10-09 10:02:29</t>
         </is>
       </c>
     </row>
@@ -1013,12 +1013,12 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
-          <t>787985390</t>
+          <t>787988015</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Alexander06</t>
+          <t>BOLASDEBALA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2025-10-08 10:15:40</t>
+          <t>2025-10-09 10:06:34</t>
         </is>
       </c>
     </row>
@@ -1061,12 +1061,12 @@
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
-          <t>787986005</t>
+          <t>787988102</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>livioparedes</t>
+          <t>Yanda14</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2025-10-08 12:45:10</t>
+          <t>2025-10-09 10:37:46</t>
         </is>
       </c>
     </row>
@@ -1109,12 +1109,12 @@
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr">
         <is>
-          <t>787986035</t>
+          <t>787988129</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>XXrokc123</t>
+          <t>ginarhcp</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1149,7 +1149,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2025-10-08 12:52:45</t>
+          <t>2025-10-09 10:46:34</t>
         </is>
       </c>
     </row>
@@ -1157,12 +1157,12 @@
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
-          <t>787986158</t>
+          <t>787988162</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>alexanderbarrera</t>
+          <t>moises89</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2025-10-08 13:25:26</t>
+          <t>2025-10-09 11:01:15</t>
         </is>
       </c>
     </row>
@@ -1205,12 +1205,12 @@
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
-          <t>787986239</t>
+          <t>787988168</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>tomateo123</t>
+          <t>pedrotest</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2025-10-08 13:56:09</t>
+          <t>2025-10-09 11:02:52</t>
         </is>
       </c>
     </row>
@@ -1253,12 +1253,12 @@
       <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr">
         <is>
-          <t>787986341</t>
+          <t>787988333</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Bakatran</t>
+          <t>JHOE21</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2025-10-08 14:34:34</t>
+          <t>2025-10-09 11:39:43</t>
         </is>
       </c>
     </row>
@@ -1301,12 +1301,12 @@
       <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr">
         <is>
-          <t>787986344</t>
+          <t>787988438</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>yeisongana</t>
+          <t>Elmechas89</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>S/0.00</t>
+          <t>S/0.26</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1341,7 +1341,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2025-10-08 14:36:19</t>
+          <t>2025-10-09 12:14:51</t>
         </is>
       </c>
     </row>
@@ -1349,12 +1349,12 @@
       <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr">
         <is>
-          <t>787986386</t>
+          <t>787988486</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>pacucho09</t>
+          <t>924839084</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2025-10-08 14:52:52</t>
+          <t>2025-10-09 12:29:50</t>
         </is>
       </c>
     </row>
@@ -1397,12 +1397,12 @@
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr">
         <is>
-          <t>787986476</t>
+          <t>787988579</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ricardo19</t>
+          <t>chrisz10</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2025-10-08 16:01:24</t>
+          <t>2025-10-09 12:45:14</t>
         </is>
       </c>
     </row>
@@ -1445,12 +1445,12 @@
       <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
-          <t>787986497</t>
+          <t>787988735</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Garra</t>
+          <t>danielito1996</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2025-10-08 16:16:43</t>
+          <t>2025-10-09 13:20:41</t>
         </is>
       </c>
     </row>
@@ -1493,12 +1493,12 @@
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
-          <t>787986512</t>
+          <t>787988933</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>banezca123</t>
+          <t>testelo</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2025-10-08 16:19:50</t>
+          <t>2025-10-09 14:22:30</t>
         </is>
       </c>
     </row>
@@ -1541,12 +1541,12 @@
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>787986524</t>
+          <t>787988939</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Pericote</t>
+          <t>FranzuaxD</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2025-10-08 16:28:35</t>
+          <t>2025-10-09 14:23:35</t>
         </is>
       </c>
     </row>
@@ -1589,12 +1589,12 @@
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr">
         <is>
-          <t>787986527</t>
+          <t>787988951</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>wilmar</t>
+          <t>Ginoxx123</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2025-10-08 16:29:21</t>
+          <t>2025-10-09 14:27:34</t>
         </is>
       </c>
     </row>
@@ -1637,12 +1637,12 @@
       <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr">
         <is>
-          <t>787986539</t>
+          <t>787989104</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>809090</t>
+          <t>ITALOS</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2025-10-08 16:44:41</t>
+          <t>2025-10-09 16:02:47</t>
         </is>
       </c>
     </row>
@@ -1685,12 +1685,12 @@
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
-          <t>787986590</t>
+          <t>787989182</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>zambiti</t>
+          <t>javicho1996</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2025-10-08 17:17:53</t>
+          <t>2025-10-09 17:13:15</t>
         </is>
       </c>
     </row>
@@ -1733,12 +1733,12 @@
       <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr">
         <is>
-          <t>787986596</t>
+          <t>787989272</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ajry1705</t>
+          <t>Jeancarlo2002</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2025-10-08 17:23:22</t>
+          <t>2025-10-09 18:35:24</t>
         </is>
       </c>
     </row>
@@ -1781,12 +1781,12 @@
       <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
-          <t>787986617</t>
+          <t>787989293</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>jhonri</t>
+          <t>Ivanza84</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>S/800.02</t>
+          <t>S/0.00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2025-10-08 17:43:14</t>
+          <t>2025-10-09 19:04:08</t>
         </is>
       </c>
     </row>
@@ -1829,12 +1829,12 @@
       <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr">
         <is>
-          <t>787986647</t>
+          <t>787989344</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>XxUrielxX</t>
+          <t>lm</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1869,7 +1869,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2025-10-08 18:11:48</t>
+          <t>2025-10-09 20:32:42</t>
         </is>
       </c>
     </row>
@@ -1877,12 +1877,12 @@
       <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr">
         <is>
-          <t>787986665</t>
+          <t>787989347</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>hanast79</t>
+          <t>Rodrigogonzales</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1917,7 +1917,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2025-10-08 18:32:44</t>
+          <t>2025-10-09 20:34:41</t>
         </is>
       </c>
     </row>
@@ -1925,12 +1925,12 @@
       <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr">
         <is>
-          <t>787986728</t>
+          <t>787989350</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>DiegoMG</t>
+          <t>frankomt31</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1965,7 +1965,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2025-10-08 20:06:04</t>
+          <t>2025-10-09 20:34:59</t>
         </is>
       </c>
     </row>
@@ -1973,12 +1973,12 @@
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr">
         <is>
-          <t>787986746</t>
+          <t>787989368</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Eljhon50</t>
+          <t>Flavia03</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>2025-10-08 20:18:54</t>
+          <t>2025-10-09 20:59:35</t>
         </is>
       </c>
     </row>
@@ -2021,12 +2021,12 @@
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr">
         <is>
-          <t>787986770</t>
+          <t>787989374</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>yango9496</t>
+          <t>Bagnerlo</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2061,7 +2061,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2025-10-08 20:49:09</t>
+          <t>2025-10-09 21:11:24</t>
         </is>
       </c>
     </row>
@@ -2069,12 +2069,12 @@
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr">
         <is>
-          <t>787986776</t>
+          <t>787989377</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>pietro</t>
+          <t>angelperez</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2109,7 +2109,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>2025-10-08 20:57:54</t>
+          <t>2025-10-09 21:22:15</t>
         </is>
       </c>
     </row>
@@ -2117,12 +2117,12 @@
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr">
         <is>
-          <t>787986821</t>
+          <t>787989383</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>jessi02</t>
+          <t>Enriquejosensn</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2157,7 +2157,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>2025-10-08 22:20:35</t>
+          <t>2025-10-09 21:29:25</t>
         </is>
       </c>
     </row>
@@ -2165,12 +2165,12 @@
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
-          <t>787986827</t>
+          <t>787989401</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>70379822</t>
+          <t>Eduardo1816</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>2025-10-08 22:23:02</t>
+          <t>2025-10-09 21:55:00</t>
         </is>
       </c>
     </row>
@@ -2213,12 +2213,12 @@
       <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr">
         <is>
-          <t>787986836</t>
+          <t>787989416</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Andy88</t>
+          <t>tifa1587</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>S/0.00</t>
+          <t>S/0.10</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2253,7 +2253,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>2025-10-08 22:32:17</t>
+          <t>2025-10-09 22:15:39</t>
         </is>
       </c>
     </row>
@@ -2261,12 +2261,12 @@
       <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr">
         <is>
-          <t>787986845</t>
+          <t>787989419</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>pochito2092</t>
+          <t>Edgarjose</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2301,7 +2301,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>2025-10-08 22:46:48</t>
+          <t>2025-10-09 22:17:39</t>
         </is>
       </c>
     </row>
@@ -2309,12 +2309,12 @@
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr">
         <is>
-          <t>787986848</t>
+          <t>787989431</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>fm1977jose</t>
+          <t>Jaluva</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2349,7 +2349,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>2025-10-08 22:49:25</t>
+          <t>2025-10-09 22:30:37</t>
         </is>
       </c>
     </row>
@@ -2357,12 +2357,12 @@
       <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr">
         <is>
-          <t>787986866</t>
+          <t>787989449</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>luischuquitapa</t>
+          <t>Gomez2007</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>2025-10-08 23:33:21</t>
+          <t>2025-10-09 23:11:36</t>
         </is>
       </c>
     </row>
@@ -2405,12 +2405,12 @@
       <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr">
         <is>
-          <t>787986872</t>
+          <t>787989461</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Vladimir150319</t>
+          <t>AtCeLlZz</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2445,7 +2445,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>2025-10-08 23:45:53</t>
+          <t>2025-10-09 23:43:11</t>
         </is>
       </c>
     </row>
